--- a/Excel-XLSX/UN-HRV.xlsx
+++ b/Excel-XLSX/UN-HRV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="872">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>J6UinP</t>
+    <t>P5hsNS</t>
   </si>
   <si>
     <t>1992</t>
@@ -2526,12 +2526,6 @@
     <t>536</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>537</t>
   </si>
   <si>
@@ -2547,6 +2541,12 @@
     <t>542</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
     <t>543</t>
   </si>
   <si>
@@ -2580,15 +2580,27 @@
     <t>557</t>
   </si>
   <si>
+    <t>758</t>
+  </si>
+  <si>
     <t>558</t>
   </si>
   <si>
     <t>559</t>
   </si>
   <si>
+    <t>572</t>
+  </si>
+  <si>
     <t>560</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
     <t>561</t>
   </si>
   <si>
@@ -2601,16 +2613,22 @@
     <t>564</t>
   </si>
   <si>
+    <t>27256</t>
+  </si>
+  <si>
     <t>565</t>
   </si>
   <si>
-    <t>25475</t>
-  </si>
-  <si>
     <t>566</t>
   </si>
   <si>
     <t>567</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
   </si>
   <si>
     <t>568</t>
@@ -38407,10 +38425,10 @@
         <v>31</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="P521" s="2" t="s">
         <v>33</v>
@@ -38425,7 +38443,7 @@
         <v>33</v>
       </c>
       <c r="T521" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U521" s="1" t="s">
         <v>34</v>
@@ -38478,7 +38496,7 @@
         <v>33</v>
       </c>
       <c r="O522" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P522" s="2" t="s">
         <v>33</v>
@@ -38543,10 +38561,10 @@
         <v>31</v>
       </c>
       <c r="N523" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O523" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="P523" s="2" t="s">
         <v>33</v>
@@ -38561,7 +38579,7 @@
         <v>33</v>
       </c>
       <c r="T523" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="U523" s="1" t="s">
         <v>34</v>
@@ -38682,7 +38700,7 @@
         <v>59</v>
       </c>
       <c r="O525" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P525" s="2" t="s">
         <v>33</v>
@@ -38697,7 +38715,7 @@
         <v>33</v>
       </c>
       <c r="T525" s="2" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="U525" s="1" t="s">
         <v>34</v>
@@ -38747,10 +38765,10 @@
         <v>31</v>
       </c>
       <c r="N526" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="P526" s="2" t="s">
         <v>33</v>
@@ -38818,7 +38836,7 @@
         <v>63</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="P527" s="2" t="s">
         <v>33</v>
@@ -38833,7 +38851,7 @@
         <v>33</v>
       </c>
       <c r="T527" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="U527" s="1" t="s">
         <v>34</v>
@@ -38886,7 +38904,7 @@
         <v>89</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P528" s="2" t="s">
         <v>33</v>
@@ -38927,16 +38945,16 @@
         <v>821</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J529" s="2" t="s">
         <v>29</v>
@@ -38951,10 +38969,10 @@
         <v>31</v>
       </c>
       <c r="N529" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P529" s="2" t="s">
         <v>33</v>
@@ -38995,16 +39013,16 @@
         <v>821</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>714</v>
+        <v>229</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>715</v>
+        <v>230</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>715</v>
+        <v>231</v>
       </c>
       <c r="J530" s="2" t="s">
         <v>29</v>
@@ -39019,10 +39037,10 @@
         <v>31</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O530" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P530" s="2" t="s">
         <v>33</v>
@@ -39063,16 +39081,16 @@
         <v>821</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>229</v>
+        <v>489</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>230</v>
+        <v>490</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>231</v>
+        <v>490</v>
       </c>
       <c r="J531" s="2" t="s">
         <v>29</v>
@@ -39087,10 +39105,10 @@
         <v>31</v>
       </c>
       <c r="N531" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P531" s="2" t="s">
         <v>33</v>
@@ -39131,16 +39149,16 @@
         <v>821</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>489</v>
+        <v>287</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>490</v>
+        <v>288</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>490</v>
+        <v>289</v>
       </c>
       <c r="J532" s="2" t="s">
         <v>29</v>
@@ -39155,10 +39173,10 @@
         <v>31</v>
       </c>
       <c r="N532" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O532" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P532" s="2" t="s">
         <v>33</v>
@@ -39173,7 +39191,7 @@
         <v>33</v>
       </c>
       <c r="T532" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U532" s="1" t="s">
         <v>34</v>
@@ -39199,16 +39217,16 @@
         <v>821</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>287</v>
+        <v>589</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>288</v>
+        <v>590</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>289</v>
+        <v>590</v>
       </c>
       <c r="J533" s="2" t="s">
         <v>29</v>
@@ -39223,10 +39241,10 @@
         <v>31</v>
       </c>
       <c r="N533" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="P533" s="2" t="s">
         <v>33</v>
@@ -39267,16 +39285,16 @@
         <v>821</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>589</v>
+        <v>778</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>590</v>
+        <v>779</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>590</v>
+        <v>779</v>
       </c>
       <c r="J534" s="2" t="s">
         <v>29</v>
@@ -39291,10 +39309,10 @@
         <v>31</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P534" s="2" t="s">
         <v>33</v>
@@ -39309,7 +39327,7 @@
         <v>33</v>
       </c>
       <c r="T534" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U534" s="1" t="s">
         <v>34</v>
@@ -39362,7 +39380,7 @@
         <v>33</v>
       </c>
       <c r="O535" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="P535" s="2" t="s">
         <v>33</v>
@@ -39471,16 +39489,16 @@
         <v>821</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>836</v>
+        <v>723</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>837</v>
+        <v>724</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>837</v>
+        <v>724</v>
       </c>
       <c r="J537" s="2" t="s">
         <v>29</v>
@@ -39495,7 +39513,7 @@
         <v>31</v>
       </c>
       <c r="N537" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O537" s="2" t="s">
         <v>33</v>
@@ -39513,7 +39531,7 @@
         <v>33</v>
       </c>
       <c r="T537" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U537" s="1" t="s">
         <v>34</v>
@@ -39533,22 +39551,22 @@
         <v>22</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="J538" s="2" t="s">
         <v>29</v>
@@ -39563,10 +39581,10 @@
         <v>31</v>
       </c>
       <c r="N538" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="O538" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="P538" s="2" t="s">
         <v>33</v>
@@ -39601,22 +39619,22 @@
         <v>22</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>723</v>
+        <v>210</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>724</v>
+        <v>211</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>724</v>
+        <v>212</v>
       </c>
       <c r="J539" s="2" t="s">
         <v>29</v>
@@ -39631,7 +39649,7 @@
         <v>31</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O539" s="2" t="s">
         <v>33</v>
@@ -39675,16 +39693,16 @@
         <v>821</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="J540" s="2" t="s">
         <v>29</v>
@@ -39699,10 +39717,10 @@
         <v>31</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O540" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P540" s="2" t="s">
         <v>33</v>
@@ -39737,22 +39755,22 @@
         <v>22</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>727</v>
+        <v>107</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>728</v>
+        <v>108</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>729</v>
+        <v>108</v>
       </c>
       <c r="J541" s="2" t="s">
         <v>29</v>
@@ -39767,10 +39785,10 @@
         <v>31</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="P541" s="2" t="s">
         <v>33</v>
@@ -39785,7 +39803,7 @@
         <v>33</v>
       </c>
       <c r="T541" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U541" s="1" t="s">
         <v>34</v>
@@ -39805,22 +39823,22 @@
         <v>22</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="J542" s="2" t="s">
         <v>29</v>
@@ -39835,10 +39853,10 @@
         <v>31</v>
       </c>
       <c r="N542" s="2" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="O542" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="P542" s="2" t="s">
         <v>33</v>
@@ -39873,22 +39891,22 @@
         <v>22</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>215</v>
+        <v>841</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>216</v>
+        <v>842</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>216</v>
+        <v>842</v>
       </c>
       <c r="J543" s="2" t="s">
         <v>29</v>
@@ -39903,10 +39921,10 @@
         <v>31</v>
       </c>
       <c r="N543" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O543" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="P543" s="2" t="s">
         <v>33</v>
@@ -39947,16 +39965,16 @@
         <v>821</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>29</v>
@@ -39971,10 +39989,10 @@
         <v>31</v>
       </c>
       <c r="N544" s="2" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="O544" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="P544" s="2" t="s">
         <v>33</v>
@@ -40015,16 +40033,16 @@
         <v>821</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>130</v>
+        <v>499</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>130</v>
+        <v>499</v>
       </c>
       <c r="J545" s="2" t="s">
         <v>29</v>
@@ -40039,10 +40057,10 @@
         <v>31</v>
       </c>
       <c r="N545" s="2" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="P545" s="2" t="s">
         <v>33</v>
@@ -40083,16 +40101,16 @@
         <v>821</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>791</v>
+        <v>465</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>792</v>
+        <v>466</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>792</v>
+        <v>467</v>
       </c>
       <c r="J546" s="2" t="s">
         <v>29</v>
@@ -40107,10 +40125,10 @@
         <v>31</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P546" s="2" t="s">
         <v>33</v>
@@ -40125,7 +40143,7 @@
         <v>33</v>
       </c>
       <c r="T546" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U546" s="1" t="s">
         <v>34</v>
@@ -40151,16 +40169,16 @@
         <v>821</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>384</v>
+        <v>737</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>385</v>
+        <v>738</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>385</v>
+        <v>738</v>
       </c>
       <c r="J547" s="2" t="s">
         <v>29</v>
@@ -40175,10 +40193,10 @@
         <v>31</v>
       </c>
       <c r="N547" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O547" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P547" s="2" t="s">
         <v>33</v>
@@ -40193,7 +40211,7 @@
         <v>33</v>
       </c>
       <c r="T547" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="U547" s="1" t="s">
         <v>34</v>
@@ -40219,16 +40237,16 @@
         <v>821</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>498</v>
+        <v>681</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>499</v>
+        <v>682</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>499</v>
+        <v>682</v>
       </c>
       <c r="J548" s="2" t="s">
         <v>29</v>
@@ -40287,16 +40305,16 @@
         <v>821</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>465</v>
+        <v>742</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>466</v>
+        <v>743</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>467</v>
+        <v>743</v>
       </c>
       <c r="J549" s="2" t="s">
         <v>29</v>
@@ -40311,10 +40329,10 @@
         <v>31</v>
       </c>
       <c r="N549" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P549" s="2" t="s">
         <v>33</v>
@@ -40355,16 +40373,16 @@
         <v>821</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>737</v>
+        <v>349</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>738</v>
+        <v>350</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>738</v>
+        <v>351</v>
       </c>
       <c r="J550" s="2" t="s">
         <v>29</v>
@@ -40379,10 +40397,10 @@
         <v>31</v>
       </c>
       <c r="N550" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="O550" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="P550" s="2" t="s">
         <v>33</v>
@@ -40423,16 +40441,16 @@
         <v>821</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>742</v>
+        <v>603</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>743</v>
+        <v>604</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>743</v>
+        <v>605</v>
       </c>
       <c r="J551" s="2" t="s">
         <v>29</v>
@@ -40450,7 +40468,7 @@
         <v>33</v>
       </c>
       <c r="O551" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P551" s="2" t="s">
         <v>33</v>
@@ -40491,16 +40509,16 @@
         <v>821</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>350</v>
+        <v>144</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>29</v>
@@ -40515,10 +40533,10 @@
         <v>31</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="O552" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="P552" s="2" t="s">
         <v>33</v>
@@ -40559,16 +40577,16 @@
         <v>821</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>603</v>
+        <v>148</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>604</v>
+        <v>149</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>605</v>
+        <v>149</v>
       </c>
       <c r="J553" s="2" t="s">
         <v>29</v>
@@ -40583,10 +40601,10 @@
         <v>31</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O553" s="2" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="P553" s="2" t="s">
         <v>33</v>
@@ -40627,16 +40645,16 @@
         <v>821</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>29</v>
@@ -40651,10 +40669,10 @@
         <v>31</v>
       </c>
       <c r="N554" s="2" t="s">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="O554" s="2" t="s">
-        <v>33</v>
+        <v>623</v>
       </c>
       <c r="P554" s="2" t="s">
         <v>33</v>
@@ -40669,7 +40687,7 @@
         <v>33</v>
       </c>
       <c r="T554" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="U554" s="1" t="s">
         <v>34</v>
@@ -40695,16 +40713,16 @@
         <v>821</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>148</v>
+        <v>610</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>149</v>
+        <v>611</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>149</v>
+        <v>611</v>
       </c>
       <c r="J555" s="2" t="s">
         <v>29</v>
@@ -40719,10 +40737,10 @@
         <v>31</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="P555" s="2" t="s">
         <v>33</v>
@@ -40737,7 +40755,7 @@
         <v>33</v>
       </c>
       <c r="T555" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="U555" s="1" t="s">
         <v>34</v>
@@ -40763,16 +40781,16 @@
         <v>821</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>29</v>
@@ -40787,10 +40805,10 @@
         <v>31</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="O556" s="2" t="s">
-        <v>646</v>
+        <v>49</v>
       </c>
       <c r="P556" s="2" t="s">
         <v>33</v>
@@ -40805,7 +40823,7 @@
         <v>33</v>
       </c>
       <c r="T556" s="2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="U556" s="1" t="s">
         <v>34</v>
@@ -40831,16 +40849,16 @@
         <v>821</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>318</v>
+        <v>55</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>29</v>
@@ -40855,10 +40873,10 @@
         <v>31</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="O557" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P557" s="2" t="s">
         <v>33</v>
@@ -40873,7 +40891,7 @@
         <v>33</v>
       </c>
       <c r="T557" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="U557" s="1" t="s">
         <v>34</v>
@@ -40899,16 +40917,16 @@
         <v>821</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>610</v>
+        <v>221</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>611</v>
+        <v>222</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>611</v>
+        <v>223</v>
       </c>
       <c r="J558" s="2" t="s">
         <v>29</v>
@@ -40938,10 +40956,10 @@
         <v>33</v>
       </c>
       <c r="S558" s="2" t="s">
-        <v>33</v>
+        <v>854</v>
       </c>
       <c r="T558" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="U558" s="1" t="s">
         <v>34</v>
@@ -40961,22 +40979,22 @@
         <v>22</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="J559" s="2" t="s">
         <v>29</v>
@@ -40991,10 +41009,10 @@
         <v>31</v>
       </c>
       <c r="N559" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="O559" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P559" s="2" t="s">
         <v>33</v>
@@ -41009,7 +41027,7 @@
         <v>33</v>
       </c>
       <c r="T559" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="U559" s="1" t="s">
         <v>34</v>
@@ -41029,22 +41047,22 @@
         <v>22</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="H560" s="1" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="J560" s="2" t="s">
         <v>29</v>
@@ -41059,10 +41077,10 @@
         <v>31</v>
       </c>
       <c r="N560" s="2" t="s">
-        <v>63</v>
+        <v>857</v>
       </c>
       <c r="O560" s="2" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="P560" s="2" t="s">
         <v>33</v>
@@ -41077,7 +41095,7 @@
         <v>33</v>
       </c>
       <c r="T560" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="U560" s="1" t="s">
         <v>34</v>
@@ -41097,22 +41115,22 @@
         <v>22</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>221</v>
+        <v>859</v>
       </c>
       <c r="H561" s="1" t="s">
-        <v>222</v>
+        <v>860</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>223</v>
+        <v>860</v>
       </c>
       <c r="J561" s="2" t="s">
         <v>29</v>
@@ -41127,10 +41145,10 @@
         <v>31</v>
       </c>
       <c r="N561" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O561" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P561" s="2" t="s">
         <v>33</v>
@@ -41142,7 +41160,7 @@
         <v>33</v>
       </c>
       <c r="S561" s="2" t="s">
-        <v>807</v>
+        <v>33</v>
       </c>
       <c r="T561" s="2" t="s">
         <v>33</v>
@@ -41165,22 +41183,22 @@
         <v>22</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="H562" s="1" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="J562" s="2" t="s">
         <v>29</v>
@@ -41195,10 +41213,10 @@
         <v>31</v>
       </c>
       <c r="N562" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O562" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O562" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="P562" s="2" t="s">
         <v>33</v>
@@ -41233,22 +41251,22 @@
         <v>22</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="H563" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J563" s="2" t="s">
         <v>29</v>
@@ -41263,10 +41281,10 @@
         <v>31</v>
       </c>
       <c r="N563" s="2" t="s">
-        <v>858</v>
+        <v>135</v>
       </c>
       <c r="O563" s="2" t="s">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="P563" s="2" t="s">
         <v>33</v>
@@ -41281,7 +41299,7 @@
         <v>33</v>
       </c>
       <c r="T563" s="2" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="U563" s="1" t="s">
         <v>34</v>
@@ -41301,22 +41319,22 @@
         <v>22</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="H564" s="1" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="J564" s="2" t="s">
         <v>29</v>
@@ -41331,10 +41349,10 @@
         <v>31</v>
       </c>
       <c r="N564" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="O564" s="2" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="P564" s="2" t="s">
         <v>33</v>
@@ -41349,7 +41367,7 @@
         <v>33</v>
       </c>
       <c r="T564" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="U564" s="1" t="s">
         <v>34</v>
@@ -41369,22 +41387,22 @@
         <v>22</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>25</v>
+        <v>368</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>26</v>
+        <v>369</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>27</v>
+        <v>370</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="J565" s="2" t="s">
         <v>29</v>
@@ -41399,10 +41417,10 @@
         <v>31</v>
       </c>
       <c r="N565" s="2" t="s">
-        <v>52</v>
+        <v>865</v>
       </c>
       <c r="O565" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="P565" s="2" t="s">
         <v>33</v>
@@ -41437,22 +41455,22 @@
         <v>22</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>370</v>
+        <v>697</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>370</v>
+        <v>697</v>
       </c>
       <c r="J566" s="2" t="s">
         <v>29</v>
@@ -41467,13 +41485,13 @@
         <v>31</v>
       </c>
       <c r="N566" s="2" t="s">
-        <v>862</v>
+        <v>65</v>
       </c>
       <c r="O566" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P566" s="2" t="s">
-        <v>668</v>
+        <v>33</v>
       </c>
       <c r="Q566" s="2" t="s">
         <v>33</v>
@@ -41485,7 +41503,7 @@
         <v>33</v>
       </c>
       <c r="T566" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U566" s="1" t="s">
         <v>34</v>
@@ -41505,22 +41523,22 @@
         <v>22</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>696</v>
+        <v>302</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>697</v>
+        <v>303</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>697</v>
+        <v>303</v>
       </c>
       <c r="J567" s="2" t="s">
         <v>29</v>
@@ -41535,7 +41553,7 @@
         <v>31</v>
       </c>
       <c r="N567" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O567" s="2" t="s">
         <v>33</v>
@@ -41573,22 +41591,22 @@
         <v>22</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>302</v>
+        <v>869</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>303</v>
+        <v>870</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>303</v>
+        <v>870</v>
       </c>
       <c r="J568" s="2" t="s">
         <v>29</v>
@@ -41603,10 +41621,10 @@
         <v>31</v>
       </c>
       <c r="N568" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O568" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P568" s="2" t="s">
         <v>33</v>
@@ -41641,7 +41659,7 @@
         <v>22</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>821</v>
